--- a/app/data/absenteeism_data_37.xlsx
+++ b/app/data/absenteeism_data_37.xlsx
@@ -476,132 +476,132 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58233</v>
+        <v>65100</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kamilly da Costa</t>
+          <t>Alana Rezende</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45080</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>3580.32</v>
+        <v>2765.13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33059</v>
+        <v>60989</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anthony Duarte</t>
+          <t>Srta. Ana Lívia Rodrigues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>4711.71</v>
+        <v>6709.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6513</v>
+        <v>60117</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sr. João Lucas Jesus</t>
+          <t>Maria Sophia da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45103</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>2853.07</v>
+        <v>9167.530000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7679</v>
+        <v>44273</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sarah da Rosa</t>
+          <t>Dra. Maria Vitória Lopes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45093</v>
+        <v>45099</v>
       </c>
       <c r="G5" t="n">
-        <v>2831.27</v>
+        <v>9283.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>72064</v>
+        <v>94046</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lavínia Ramos</t>
+          <t>Sr. Danilo da Mota</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,158 +610,158 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>5180.14</v>
+        <v>12148.81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31594</v>
+        <v>84679</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maitê Nogueira</t>
+          <t>Cauê da Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45100</v>
       </c>
       <c r="G7" t="n">
-        <v>7419.81</v>
+        <v>7152.04</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92070</v>
+        <v>10291</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Erick Cardoso</t>
+          <t>Fernando Barros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45096</v>
       </c>
       <c r="G8" t="n">
-        <v>6173.44</v>
+        <v>3200.58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>93557</v>
+        <v>31360</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. André Oliveira</t>
+          <t>Danilo Melo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45079</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>3794.23</v>
+        <v>4037.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>85586</v>
+        <v>60454</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Valentina Lima</t>
+          <t>Ana Júlia Martins</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45104</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>3603.45</v>
+        <v>4250.81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>86897</v>
+        <v>64853</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Helena Peixoto</t>
+          <t>Isaac Dias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>7638.86</v>
+        <v>9680.129999999999</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_37.xlsx
+++ b/app/data/absenteeism_data_37.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25288</v>
+        <v>95454</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sra. Juliana Moreira</t>
+          <t>Catarina Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,167 +494,167 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45093</v>
       </c>
       <c r="G2" t="n">
-        <v>5736.16</v>
+        <v>9586.719999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38457</v>
+        <v>40694</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isis Nunes</t>
+          <t>Isadora Novaes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>9432.57</v>
+        <v>7173.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78728</v>
+        <v>66440</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Olivia Cardoso</t>
+          <t>Davi Lucas Nascimento</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>9695.18</v>
+        <v>3930.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13262</v>
+        <v>4424</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yago Mendes</t>
+          <t>Srta. Helena Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45089</v>
       </c>
       <c r="G5" t="n">
-        <v>9289.67</v>
+        <v>3703.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>67495</v>
+        <v>31495</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Clara Pires</t>
+          <t>Leandro Viana</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>5577.44</v>
+        <v>3252.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>66324</v>
+        <v>15306</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Samuel Ramos</t>
+          <t>Francisco Novaes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45096</v>
+        <v>45091</v>
       </c>
       <c r="G7" t="n">
-        <v>2545.85</v>
+        <v>11503.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28956</v>
+        <v>20375</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Daniel Sales</t>
+          <t>Lavínia Correia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,89 +664,89 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>9805.620000000001</v>
+        <v>5145.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11699</v>
+        <v>28689</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Daniel da Paz</t>
+          <t>Lara Monteiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>2505.28</v>
+        <v>8966.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15375</v>
+        <v>82782</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Agatha Jesus</t>
+          <t>Leonardo Nascimento</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45079</v>
+        <v>45094</v>
       </c>
       <c r="G10" t="n">
-        <v>5257.16</v>
+        <v>7087.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68993</v>
+        <v>42475</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Diogo Freitas</t>
+          <t>Vicente da Mota</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45094</v>
       </c>
       <c r="G11" t="n">
-        <v>5734.36</v>
+        <v>6493.29</v>
       </c>
     </row>
   </sheetData>
